--- a/ConvertedEqual/Nevada_Converted.xlsx
+++ b/ConvertedEqual/Nevada_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="286">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -837,6 +837,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK221"/>
+  <dimension ref="A1:AK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,6 +1509,9 @@
       <c r="P3" s="2">
         <v>43908</v>
       </c>
+      <c r="Q3" s="2">
+        <v>43908</v>
+      </c>
       <c r="R3" s="2">
         <v>43908</v>
       </c>
@@ -1725,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1743,7 +1782,7 @@
         <v>0.2857142857</v>
       </c>
       <c r="AK7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -3556,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -3669,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -3722,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -3782,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -3835,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -3895,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -3948,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -4008,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -4061,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -4121,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -4174,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -4234,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="31" spans="1:37">
@@ -4287,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -4347,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.4706959706846154</v>
+        <v>0.5376984126833333</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4400,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -4460,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4513,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -4573,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="34" spans="1:37">
@@ -4626,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -4686,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="35" spans="1:37">
@@ -4739,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -4799,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -4852,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -4912,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -4965,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -5025,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="38" spans="1:37">
@@ -5078,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -5138,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0.5476190476076922</v>
+        <v>0.6210317460166666</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -5191,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -5251,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="40" spans="1:37">
@@ -5304,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -5364,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AK40">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5417,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -5477,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AK41">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5530,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -5590,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5643,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -5703,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5756,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -5816,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="AK44">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="45" spans="1:37">
@@ -5869,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -5929,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AK45">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5982,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -6042,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>0.7380952380846154</v>
+        <v>0.7440476190333333</v>
       </c>
     </row>
     <row r="47" spans="1:37">
@@ -6095,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -6155,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="AK47">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="48" spans="1:37">
@@ -6208,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -6268,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="AK48">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="49" spans="1:37">
@@ -6321,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -6381,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="AK49">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="50" spans="1:37">
@@ -6434,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -6494,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AK50">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="51" spans="1:37">
@@ -6547,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -6607,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="AK51">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="52" spans="1:37">
@@ -6660,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -6720,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="AK52">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="53" spans="1:37">
@@ -6773,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -6833,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="AK53">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="54" spans="1:37">
@@ -6886,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -6946,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="AK54">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="55" spans="1:37">
@@ -6999,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -7059,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="AK55">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="56" spans="1:37">
@@ -7112,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -7172,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="AK56">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="57" spans="1:37">
@@ -7225,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -7285,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="58" spans="1:37">
@@ -7338,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -7398,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="AK58">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="59" spans="1:37">
@@ -7451,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -7511,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="AK59">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="60" spans="1:37">
@@ -7564,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -7624,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="AK60">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -7677,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -7737,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="AK61">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="62" spans="1:37">
@@ -7790,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -7850,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="AK62">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="63" spans="1:37">
@@ -7903,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -7963,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AK63">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="64" spans="1:37">
@@ -8016,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -8076,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="AK64">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="65" spans="1:37">
@@ -8129,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -8189,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="AK65">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="66" spans="1:37">
@@ -8242,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -8302,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AK66">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="67" spans="1:37">
@@ -8355,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -8415,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="AK67">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="68" spans="1:37">
@@ -8468,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -8528,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="AK68">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="69" spans="1:37">
@@ -8581,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -8641,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="AK69">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="70" spans="1:37">
@@ -8694,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1</v>
@@ -8754,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="AK70">
-        <v>0.8205128205076923</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="71" spans="1:37">
@@ -8807,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>1</v>
@@ -8867,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="AK71">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="72" spans="1:37">
@@ -8920,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
         <v>1</v>
@@ -8980,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="AK72">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="73" spans="1:37">
@@ -9033,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
         <v>1</v>
@@ -9093,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="AK73">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="74" spans="1:37">
@@ -9146,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <v>1</v>
@@ -9206,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="AK74">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="75" spans="1:37">
@@ -9259,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75">
         <v>1</v>
@@ -9319,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="AK75">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="76" spans="1:37">
@@ -9372,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>1</v>
@@ -9432,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="AK76">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="77" spans="1:37">
@@ -9485,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77">
         <v>1</v>
@@ -9545,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="AK77">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="78" spans="1:37">
@@ -9598,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -9658,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="AK78">
-        <v>0.7600732600615385</v>
+        <v>0.7678571428416666</v>
       </c>
     </row>
     <row r="79" spans="1:37">
@@ -9711,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -9771,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="AK79">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="80" spans="1:37">
@@ -9824,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -9884,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="AK80">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="81" spans="1:37">
@@ -9937,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -9997,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="AK81">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="82" spans="1:37">
@@ -10050,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -10110,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="AK82">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="83" spans="1:37">
@@ -10163,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -10223,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="AK83">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="84" spans="1:37">
@@ -10276,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -10336,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="AK84">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="85" spans="1:37">
@@ -10389,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -10449,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="AK85">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="86" spans="1:37">
@@ -10502,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -10562,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="AK86">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="87" spans="1:37">
@@ -10615,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -10675,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="AK87">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="88" spans="1:37">
@@ -10728,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -10788,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="AK88">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="89" spans="1:37">
@@ -10841,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -10901,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="AK89">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="90" spans="1:37">
@@ -10954,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -11014,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AK90">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="91" spans="1:37">
@@ -11067,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -11127,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="AK91">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="92" spans="1:37">
@@ -11180,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -11240,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="AK92">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="93" spans="1:37">
@@ -11293,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -11353,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="AK93">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="94" spans="1:37">
@@ -11406,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -11466,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="AK94">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="95" spans="1:37">
@@ -11519,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -11579,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="AK95">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="96" spans="1:37">
@@ -11632,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -11692,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="AK96">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="97" spans="1:37">
@@ -11745,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -11805,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="AK97">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="98" spans="1:37">
@@ -11858,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -11918,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="AK98">
-        <v>0.5792124541999999</v>
+        <v>0.5719246031583333</v>
       </c>
     </row>
     <row r="99" spans="1:37">
@@ -12031,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="AK99">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="100" spans="1:37">
@@ -12144,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="AK100">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="101" spans="1:37">
@@ -12257,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="AK101">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="102" spans="1:37">
@@ -12370,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="AK102">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="103" spans="1:37">
@@ -12483,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="AK103">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="104" spans="1:37">
@@ -12596,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AK104">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="105" spans="1:37">
@@ -12709,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="AK105">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:37">
@@ -12822,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="AK106">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:37">
@@ -12935,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="AK107">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:37">
@@ -13048,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="AK108">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:37">
@@ -13161,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="AK109">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:37">
@@ -13274,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="AK110">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:37">
@@ -13387,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AK111">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:37">
@@ -13500,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AK112">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:37">
@@ -13613,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="AK113">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:37">
@@ -13726,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="AK114">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:37">
@@ -13839,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="AK115">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:37">
@@ -13952,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="AK116">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:37">
@@ -14065,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="AK117">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:37">
@@ -14178,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="AK118">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:37">
@@ -14291,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AK119">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:37">
@@ -14404,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="AK120">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:37">
@@ -14517,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="AK121">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:37">
@@ -14630,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="AK122">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:37">
@@ -14743,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="AK123">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:37">
@@ -14856,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="AK124">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:37">
@@ -14969,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="AK125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:37">
@@ -15082,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="AK126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:37">
@@ -15195,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="AK127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:37">
@@ -15308,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="AK128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:37">
@@ -15421,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="AK129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:37">
@@ -15534,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="AK130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:37">
@@ -15647,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="AK131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:37">
@@ -15760,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="AK132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:37">
@@ -15873,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="AK133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:37">
@@ -15986,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AK134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:37">
@@ -16099,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="AK135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:37">
@@ -16212,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="AK136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:37">
@@ -16325,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="AK137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:37">
@@ -16438,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="AK138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:37">
@@ -16551,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="AK139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:37">
@@ -16664,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="AK140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:37">
@@ -16777,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="AK141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:37">
@@ -16890,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="AK142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:37">
@@ -17003,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="AK143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:37">
@@ -17116,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="AK144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:37">
@@ -17229,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="AK145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:37">
@@ -17342,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="AK146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:37">
@@ -17455,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="AK147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:37">
@@ -17568,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="AK148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:37">
@@ -17681,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="AK149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:37">
@@ -17794,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="AK150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:37">
@@ -17907,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="AK151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:37">
@@ -18020,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="AK152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:37">
@@ -18133,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="AK153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:37">
@@ -18246,7 +18285,7 @@
         <v>0</v>
       </c>
       <c r="AK154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:37">
@@ -18359,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="AK155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:37">
@@ -18472,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="AK156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:37">
@@ -18585,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="AK157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:37">
@@ -18698,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="AK158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:37">
@@ -18811,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="AK159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:37">
@@ -18924,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AK160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:37">
@@ -19037,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="AK161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:37">
@@ -19150,7 +19189,7 @@
         <v>0</v>
       </c>
       <c r="AK162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:37">
@@ -19263,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="AK163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:37">
@@ -19376,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="AK164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:37">
@@ -19489,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="AK165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:37">
@@ -19602,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="AK166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:37">
@@ -19715,7 +19754,7 @@
         <v>0</v>
       </c>
       <c r="AK167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:37">
@@ -19828,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="AK168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:37">
@@ -19941,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="AK169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:37">
@@ -20054,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="AK170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:37">
@@ -20167,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="AK171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:37">
@@ -20280,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="AK172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:37">
@@ -20393,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="AK173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:37">
@@ -20506,7 +20545,7 @@
         <v>0</v>
       </c>
       <c r="AK174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:37">
@@ -20619,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="AK175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:37">
@@ -20732,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="AK176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:37">
@@ -20845,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="AK177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:37">
@@ -20958,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="AK178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:37">
@@ -21071,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="AK179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:37">
@@ -21184,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="AK180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:37">
@@ -21297,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="AK181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:37">
@@ -21410,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="AK182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:37">
@@ -21523,7 +21562,7 @@
         <v>0</v>
       </c>
       <c r="AK183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:37">
@@ -21636,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="AK184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:37">
@@ -21749,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="AK185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:37">
@@ -21862,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="AK186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:37">
@@ -21975,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="AK187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:37">
@@ -22088,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="AK188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:37">
@@ -22201,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="AK189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:37">
@@ -22314,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="AK190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:37">
@@ -22427,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="AK191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:37">
@@ -22540,7 +22579,7 @@
         <v>0</v>
       </c>
       <c r="AK192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:37">
@@ -22653,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="AK193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:37">
@@ -22766,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="AK194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:37">
@@ -22879,7 +22918,7 @@
         <v>0</v>
       </c>
       <c r="AK195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:37">
@@ -22992,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="AK196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:37">
@@ -23105,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="AK197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:37">
@@ -23218,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="AK198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:37">
@@ -23331,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AK199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:37">
@@ -23444,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="AK200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:37">
@@ -23557,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="AK201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:37">
@@ -23670,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="AK202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:37">
@@ -23783,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="AK203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:37">
@@ -23896,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="AK204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:37">
@@ -24009,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="AK205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:37">
@@ -24122,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="AK206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:37">
@@ -24235,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="AK207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:37">
@@ -24348,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="AK208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:37">
@@ -24461,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="AK209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:37">
@@ -24574,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="AK210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:37">
@@ -24687,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="AK211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:37">
@@ -24800,7 +24839,7 @@
         <v>0</v>
       </c>
       <c r="AK212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:37">
@@ -24913,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="AK213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:37">
@@ -25026,7 +25065,7 @@
         <v>0</v>
       </c>
       <c r="AK214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:37">
@@ -25139,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="AK215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:37">
@@ -25252,7 +25291,7 @@
         <v>0</v>
       </c>
       <c r="AK216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:37">
@@ -25365,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="AK217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:37">
@@ -25478,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="AK218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:37">
@@ -25591,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="AK219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:37">
@@ -25704,7 +25743,7 @@
         <v>0</v>
       </c>
       <c r="AK220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:37">
@@ -25817,7 +25856,1363 @@
         <v>0</v>
       </c>
       <c r="AK221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:37">
+      <c r="A222" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:37">
+      <c r="A223" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>1</v>
+      </c>
+      <c r="AF223">
+        <v>1</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:37">
+      <c r="A224" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>1</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:37">
+      <c r="A225" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>1</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:37">
+      <c r="A226" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:37">
+      <c r="A227" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1</v>
+      </c>
+      <c r="AF227">
+        <v>1</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:37">
+      <c r="A228" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>1</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:37">
+      <c r="A229" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>1</v>
+      </c>
+      <c r="AF229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:37">
+      <c r="A230" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>1</v>
+      </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:37">
+      <c r="A231" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:37">
+      <c r="A232" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:37">
+      <c r="A233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -26055,6 +27450,9 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
+      <c r="C17" s="2">
+        <v>43908</v>
+      </c>
       <c r="D17" s="2">
         <v>43980</v>
       </c>
